--- a/schedules/schedule-lists_owners-grouped.xlsx
+++ b/schedules/schedule-lists_owners-grouped.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +29,13 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -84,31 +91,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -476,957 +470,1004 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.3" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1"/>
+    <row r="2" ht="14.3" customHeight="1">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>group_No.</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>names_base</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>names_in_group_No.</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>names</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>names_No.</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.3" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+    <row r="3" ht="14.3" customHeight="1">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>AD</t>
         </is>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="F3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.3" customHeight="1">
-      <c r="A3" s="7" t="n"/>
-      <c r="B3" s="7" t="n"/>
-      <c r="C3" s="5" t="inlineStr">
+    <row r="4" ht="14.3" customHeight="1">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>AJ</t>
         </is>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="F4" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.3" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="5" ht="14.3" customHeight="1">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>BJ</t>
         </is>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="F5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="14.3" customHeight="1">
-      <c r="A5" s="7" t="n"/>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="4" t="inlineStr">
+    <row r="6" ht="14.3" customHeight="1">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="E6" s="1" t="inlineStr">
         <is>
           <t>BW</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="F6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="14.3" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="7" ht="14.3" customHeight="1">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="F7" s="4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="14.3" customHeight="1">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="5" t="inlineStr">
+    <row r="8" ht="14.3" customHeight="1">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>DS</t>
         </is>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="F8" s="4" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="14.3" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+    <row r="9" ht="14.3" customHeight="1">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
         <is>
           <t>GM</t>
         </is>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="F9" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.3" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="10" ht="14.3" customHeight="1">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>IB</t>
         </is>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="F10" s="4" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="14.3" customHeight="1">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="5" t="inlineStr">
+    <row r="11" ht="14.3" customHeight="1">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>IJ</t>
         </is>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="F11" s="4" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="14.3" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
+    <row r="12" ht="14.3" customHeight="1">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>6.</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="F12" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="14.3" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="9" t="n"/>
-      <c r="C12" s="4" t="inlineStr">
+    <row r="13" ht="14.3" customHeight="1">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="E13" s="1" t="inlineStr">
         <is>
           <t>JG</t>
         </is>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="F13" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="14.3" customHeight="1">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="4" t="inlineStr">
+    <row r="14" ht="14.3" customHeight="1">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="E14" s="1" t="inlineStr">
         <is>
           <t>JT</t>
         </is>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="F14" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="14.3" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="15" ht="14.3" customHeight="1">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>7.</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>KF</t>
         </is>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="F15" s="4" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="14.3" customHeight="1">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="9" t="n"/>
-      <c r="C15" s="5" t="inlineStr">
+    <row r="16" ht="14.3" customHeight="1">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>KJ</t>
         </is>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="F16" s="4" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="14.3" customHeight="1">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="9" t="n"/>
-      <c r="C16" s="5" t="inlineStr">
+    <row r="17" ht="14.3" customHeight="1">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>KM</t>
         </is>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="F17" s="4" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="14.3" customHeight="1">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="9" t="n"/>
-      <c r="C17" s="5" t="inlineStr">
+    <row r="18" ht="14.3" customHeight="1">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>KR</t>
         </is>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="F18" s="4" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="14.3" customHeight="1">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="9" t="n"/>
-      <c r="C18" s="5" t="inlineStr">
+    <row r="19" ht="14.3" customHeight="1">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>KY</t>
         </is>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="F19" s="4" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="14.3" customHeight="1">
-      <c r="A19" s="7" t="n"/>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="5" t="inlineStr">
+    <row r="20" ht="14.3" customHeight="1">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>6.</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>KZ</t>
         </is>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="F20" s="4" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="14.3" customHeight="1">
-      <c r="A20" s="4" t="inlineStr">
+    <row r="21" ht="14.3" customHeight="1">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>8.</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
         <is>
           <t>LU</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="F21" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="14.3" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
+    <row r="22" ht="14.3" customHeight="1">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>9.</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="F22" s="4" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="14.3" customHeight="1">
-      <c r="A22" s="9" t="n"/>
-      <c r="B22" s="9" t="n"/>
-      <c r="C22" s="5" t="inlineStr">
+    <row r="23" ht="14.3" customHeight="1">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>MG</t>
         </is>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="F23" s="4" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="14.3" customHeight="1">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="9" t="n"/>
-      <c r="C23" s="5" t="inlineStr">
+    <row r="24" ht="14.3" customHeight="1">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="D23" s="6" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>MK</t>
         </is>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="F24" s="4" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="14.3" customHeight="1">
-      <c r="A24" s="9" t="n"/>
-      <c r="B24" s="9" t="n"/>
-      <c r="C24" s="5" t="inlineStr">
+    <row r="25" ht="14.3" customHeight="1">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>MO</t>
         </is>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="F25" s="4" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="14.3" customHeight="1">
-      <c r="A25" s="9" t="n"/>
-      <c r="B25" s="9" t="n"/>
-      <c r="C25" s="5" t="inlineStr">
+    <row r="26" ht="14.3" customHeight="1">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="D25" s="6" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="F26" s="4" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="14.3" customHeight="1">
-      <c r="A26" s="9" t="n"/>
-      <c r="B26" s="9" t="n"/>
-      <c r="C26" s="5" t="inlineStr">
+    <row r="27" ht="14.3" customHeight="1">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>6.</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>MW</t>
         </is>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="F27" s="4" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="27" ht="14.3" customHeight="1">
-      <c r="A27" s="7" t="n"/>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="5" t="inlineStr">
+    <row r="28" ht="14.3" customHeight="1">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>7.</t>
         </is>
       </c>
-      <c r="D27" s="6" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>MŚ</t>
         </is>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="F28" s="4" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="28" ht="14.3" customHeight="1">
-      <c r="A28" s="4" t="inlineStr">
+    <row r="29" ht="14.3" customHeight="1">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>10.</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="F29" s="1" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.3" customHeight="1">
-      <c r="A29" s="9" t="n"/>
-      <c r="B29" s="9" t="n"/>
-      <c r="C29" s="4" t="inlineStr">
+    <row r="30" ht="14.3" customHeight="1">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D29" s="8" t="inlineStr">
+      <c r="E30" s="1" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="F30" s="1" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="14.3" customHeight="1">
-      <c r="A30" s="9" t="n"/>
-      <c r="B30" s="9" t="n"/>
-      <c r="C30" s="4" t="inlineStr">
+    <row r="31" ht="14.3" customHeight="1">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="D30" s="8" t="inlineStr">
+      <c r="E31" s="1" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="F31" s="1" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="31" ht="14.3" customHeight="1">
-      <c r="A31" s="9" t="n"/>
-      <c r="B31" s="9" t="n"/>
-      <c r="C31" s="4" t="inlineStr">
+    <row r="32" ht="14.3" customHeight="1">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="D31" s="8" t="inlineStr">
+      <c r="E32" s="1" t="inlineStr">
         <is>
           <t>PJ</t>
         </is>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="F32" s="1" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="14.3" customHeight="1">
-      <c r="A32" s="9" t="n"/>
-      <c r="B32" s="9" t="n"/>
-      <c r="C32" s="4" t="inlineStr">
+    <row r="33" ht="14.3" customHeight="1">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="2" t="n"/>
+      <c r="C33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="D32" s="8" t="inlineStr">
+      <c r="E33" s="1" t="inlineStr">
         <is>
           <t>PK</t>
         </is>
       </c>
-      <c r="E32" s="8" t="n">
+      <c r="F33" s="1" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="33" ht="14.3" customHeight="1">
-      <c r="A33" s="9" t="n"/>
-      <c r="B33" s="9" t="n"/>
-      <c r="C33" s="4" t="inlineStr">
+    <row r="34" ht="14.3" customHeight="1">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>6.</t>
         </is>
       </c>
-      <c r="D33" s="8" t="inlineStr">
+      <c r="E34" s="1" t="inlineStr">
         <is>
           <t>PL</t>
         </is>
       </c>
-      <c r="E33" s="8" t="n">
+      <c r="F34" s="1" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="14.3" customHeight="1">
-      <c r="A34" s="9" t="n"/>
-      <c r="B34" s="9" t="n"/>
-      <c r="C34" s="4" t="inlineStr">
+    <row r="35" ht="14.3" customHeight="1">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>7.</t>
         </is>
       </c>
-      <c r="D34" s="8" t="inlineStr">
+      <c r="E35" s="1" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="E34" s="8" t="n">
+      <c r="F35" s="1" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="14.3" customHeight="1">
-      <c r="A35" s="7" t="n"/>
-      <c r="B35" s="7" t="n"/>
-      <c r="C35" s="4" t="inlineStr">
+    <row r="36" ht="14.3" customHeight="1">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>8.</t>
         </is>
       </c>
-      <c r="D35" s="8" t="inlineStr">
+      <c r="E36" s="1" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="E35" s="8" t="n">
+      <c r="F36" s="1" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="14.3" customHeight="1">
-      <c r="A36" s="5" t="inlineStr">
+    <row r="37" ht="14.3" customHeight="1">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>11.</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D36" s="6" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
         <is>
           <t>RB</t>
         </is>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="F37" s="4" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="37" ht="14.3" customHeight="1">
-      <c r="A37" s="7" t="n"/>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="5" t="inlineStr">
+    <row r="38" ht="14.3" customHeight="1">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="n"/>
+      <c r="C38" s="3" t="n"/>
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D37" s="6" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr">
         <is>
           <t>RT</t>
         </is>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="F38" s="4" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="38" ht="14.3" customHeight="1">
-      <c r="A38" s="4" t="inlineStr">
+    <row r="39" ht="14.3" customHeight="1">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>12.</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D38" s="8" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
-      <c r="E38" s="8" t="n">
+      <c r="F39" s="1" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="14.3" customHeight="1">
-      <c r="A39" s="9" t="n"/>
-      <c r="B39" s="9" t="n"/>
-      <c r="C39" s="4" t="inlineStr">
+    <row r="40" ht="14.3" customHeight="1">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D39" s="8" t="inlineStr">
+      <c r="E40" s="1" t="inlineStr">
         <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="E39" s="8" t="n">
+      <c r="F40" s="1" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="40" ht="14.3" customHeight="1">
-      <c r="A40" s="9" t="n"/>
-      <c r="B40" s="9" t="n"/>
-      <c r="C40" s="4" t="inlineStr">
+    <row r="41" ht="14.3" customHeight="1">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="2" t="n"/>
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="D40" s="8" t="inlineStr">
+      <c r="E41" s="1" t="inlineStr">
         <is>
           <t>SS</t>
         </is>
       </c>
-      <c r="E40" s="8" t="n">
+      <c r="F41" s="1" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="41" ht="14.3" customHeight="1">
-      <c r="A41" s="9" t="n"/>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="4" t="inlineStr">
+    <row r="42" ht="14.3" customHeight="1">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="2" t="n"/>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="D41" s="8" t="inlineStr">
+      <c r="E42" s="1" t="inlineStr">
         <is>
           <t>ST</t>
         </is>
       </c>
-      <c r="E41" s="8" t="n">
+      <c r="F42" s="1" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="42" ht="14.3" customHeight="1">
-      <c r="A42" s="7" t="n"/>
-      <c r="B42" s="7" t="n"/>
-      <c r="C42" s="4" t="inlineStr">
+    <row r="43" ht="14.3" customHeight="1">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="2" t="n"/>
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="D42" s="8" t="inlineStr">
+      <c r="E43" s="1" t="inlineStr">
         <is>
           <t>SZ</t>
         </is>
       </c>
-      <c r="E42" s="8" t="n">
+      <c r="F43" s="1" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="43" ht="14.3" customHeight="1">
-      <c r="A43" s="5" t="inlineStr">
+    <row r="44" ht="14.3" customHeight="1">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>13.</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>U</t>
         </is>
       </c>
-      <c r="C43" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D43" s="6" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
         <is>
           <t>UL</t>
         </is>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="F44" s="4" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="44" ht="14.3" customHeight="1">
-      <c r="A44" s="4" t="inlineStr">
+    <row r="45" ht="14.3" customHeight="1">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>14.</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D44" s="8" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
         <is>
           <t>ZM</t>
         </is>
       </c>
-      <c r="E44" s="8" t="n">
+      <c r="F45" s="1" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="45" ht="14.3" customHeight="1">
-      <c r="A45" s="5" t="inlineStr">
+    <row r="46" ht="14.3" customHeight="1">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>15.</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>#re</t>
         </is>
       </c>
-      <c r="C45" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D45" s="6" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
         <is>
           <t>#re2</t>
         </is>
       </c>
-      <c r="E45" s="6" t="n">
+      <c r="F46" s="4" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="46" ht="14.3" customHeight="1">
-      <c r="A46" s="7" t="n"/>
-      <c r="B46" s="7" t="n"/>
-      <c r="C46" s="5" t="inlineStr">
+    <row r="47" ht="14.3" customHeight="1">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D46" s="6" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
         <is>
           <t>#re4</t>
         </is>
       </c>
-      <c r="E46" s="6" t="n">
+      <c r="F47" s="4" t="n">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1438,620 +1479,654 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.3" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1"/>
+    <row r="2" ht="14.3" customHeight="1">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>group_No.</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>names_base</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>names_in_group_No.</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>names</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>names_No.</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.3" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+    <row r="3" ht="14.3" customHeight="1">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="F3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.3" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="4" ht="14.3" customHeight="1">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>s</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
         <is>
           <t>s1</t>
         </is>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="F4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.3" customHeight="1">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="9" t="n"/>
-      <c r="C4" s="4" t="inlineStr">
+    <row r="5" ht="14.3" customHeight="1">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>s2</t>
         </is>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="F5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="14.3" customHeight="1">
-      <c r="A5" s="7" t="n"/>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="4" t="inlineStr">
+    <row r="6" ht="14.3" customHeight="1">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="E6" s="1" t="inlineStr">
         <is>
           <t>s3</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="F6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="14.3" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="7" ht="14.3" customHeight="1">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>st1</t>
         </is>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="F7" s="4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="14.3" customHeight="1">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="5" t="inlineStr">
+    <row r="8" ht="14.3" customHeight="1">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>st2</t>
         </is>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="F8" s="4" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="14.3" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+    <row r="9" ht="14.3" customHeight="1">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>_0</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
         <is>
           <t>_01</t>
         </is>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="F9" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.3" customHeight="1">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="9" t="n"/>
-      <c r="C9" s="4" t="inlineStr">
+    <row r="10" ht="14.3" customHeight="1">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="E10" s="1" t="inlineStr">
         <is>
           <t>_02</t>
         </is>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="F10" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="14.3" customHeight="1">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="9" t="n"/>
-      <c r="C10" s="4" t="inlineStr">
+    <row r="11" ht="14.3" customHeight="1">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="E11" s="1" t="inlineStr">
         <is>
           <t>_07</t>
         </is>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="F11" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="14.3" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="9" t="n"/>
-      <c r="C11" s="4" t="inlineStr">
+    <row r="12" ht="14.3" customHeight="1">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="E12" s="1" t="inlineStr">
         <is>
           <t>_08</t>
         </is>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="F12" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="14.3" customHeight="1">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="4" t="inlineStr">
+    <row r="13" ht="14.3" customHeight="1">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="E13" s="1" t="inlineStr">
         <is>
           <t>_09</t>
         </is>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="F13" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="14.3" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="14" ht="14.3" customHeight="1">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="C14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="n">
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="F14" s="4" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="14.3" customHeight="1">
-      <c r="A14" s="9" t="n"/>
-      <c r="B14" s="9" t="n"/>
-      <c r="C14" s="5" t="inlineStr">
+    <row r="15" ht="14.3" customHeight="1">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="E15" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="F15" s="4" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="14.3" customHeight="1">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="9" t="n"/>
-      <c r="C15" s="5" t="inlineStr">
+    <row r="16" ht="14.3" customHeight="1">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="E16" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="F16" s="4" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="14.3" customHeight="1">
-      <c r="A16" s="7" t="n"/>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="5" t="inlineStr">
+    <row r="17" ht="14.3" customHeight="1">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="E17" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="F17" s="4" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="14.3" customHeight="1">
-      <c r="A17" s="4" t="inlineStr">
+    <row r="18" ht="14.3" customHeight="1">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>6.</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="C18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="n">
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="F18" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="14.3" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
+    <row r="19" ht="14.3" customHeight="1">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>7.</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="C19" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="n">
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="F19" s="4" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="14.3" customHeight="1">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="5" t="inlineStr">
+    <row r="20" ht="14.3" customHeight="1">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="E20" s="4" t="n">
         <v>102</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="F20" s="4" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="14.3" customHeight="1">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="9" t="n"/>
-      <c r="C20" s="5" t="inlineStr">
+    <row r="21" ht="14.3" customHeight="1">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="E21" s="4" t="n">
         <v>103</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="F21" s="4" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="14.3" customHeight="1">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="9" t="n"/>
-      <c r="C21" s="5" t="inlineStr">
+    <row r="22" ht="14.3" customHeight="1">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="E22" s="4" t="n">
         <v>109</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="F22" s="4" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="14.3" customHeight="1">
-      <c r="A22" s="9" t="n"/>
-      <c r="B22" s="9" t="n"/>
-      <c r="C22" s="5" t="inlineStr">
+    <row r="23" ht="14.3" customHeight="1">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="E23" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="F23" s="4" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="14.3" customHeight="1">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="9" t="n"/>
-      <c r="C23" s="5" t="inlineStr">
+    <row r="24" ht="14.3" customHeight="1">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>6.</t>
         </is>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="E24" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="F24" s="4" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="14.3" customHeight="1">
-      <c r="A24" s="9" t="n"/>
-      <c r="B24" s="9" t="n"/>
-      <c r="C24" s="5" t="inlineStr">
+    <row r="25" ht="14.3" customHeight="1">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>7.</t>
         </is>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="E25" s="4" t="n">
         <v>112</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="F25" s="4" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="14.3" customHeight="1">
-      <c r="A25" s="9" t="n"/>
-      <c r="B25" s="9" t="n"/>
-      <c r="C25" s="5" t="inlineStr">
+    <row r="26" ht="14.3" customHeight="1">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>8.</t>
         </is>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="E26" s="4" t="n">
         <v>115</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="F26" s="4" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="14.3" customHeight="1">
-      <c r="A26" s="7" t="n"/>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="5" t="inlineStr">
+    <row r="27" ht="14.3" customHeight="1">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>9.</t>
         </is>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="E27" s="4" t="n">
         <v>116</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="F27" s="4" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="27" ht="14.3" customHeight="1">
-      <c r="A27" s="4" t="inlineStr">
+    <row r="28" ht="14.3" customHeight="1">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>8.</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="C28" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="n">
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="F28" s="1" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="28" ht="14.3" customHeight="1">
-      <c r="A28" s="9" t="n"/>
-      <c r="B28" s="9" t="n"/>
-      <c r="C28" s="4" t="inlineStr">
+    <row r="29" ht="14.3" customHeight="1">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="E29" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="F29" s="1" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.3" customHeight="1">
-      <c r="A29" s="9" t="n"/>
-      <c r="B29" s="9" t="n"/>
-      <c r="C29" s="4" t="inlineStr">
+    <row r="30" ht="14.3" customHeight="1">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="E30" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="F30" s="1" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="14.3" customHeight="1">
-      <c r="A30" s="9" t="n"/>
-      <c r="B30" s="9" t="n"/>
-      <c r="C30" s="4" t="inlineStr">
+    <row r="31" ht="14.3" customHeight="1">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="E31" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="F31" s="1" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="31" ht="14.3" customHeight="1">
-      <c r="A31" s="9" t="n"/>
-      <c r="B31" s="9" t="n"/>
-      <c r="C31" s="4" t="inlineStr">
+    <row r="32" ht="14.3" customHeight="1">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="E32" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="F32" s="1" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="14.3" customHeight="1">
-      <c r="A32" s="9" t="n"/>
-      <c r="B32" s="9" t="n"/>
-      <c r="C32" s="4" t="inlineStr">
+    <row r="33" ht="14.3" customHeight="1">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="2" t="n"/>
+      <c r="C33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>6.</t>
         </is>
       </c>
-      <c r="D32" s="8" t="n">
+      <c r="E33" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="E32" s="8" t="n">
+      <c r="F33" s="1" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="33" ht="14.3" customHeight="1">
-      <c r="A33" s="7" t="n"/>
-      <c r="B33" s="7" t="n"/>
-      <c r="C33" s="4" t="inlineStr">
+    <row r="34" ht="14.3" customHeight="1">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>7.</t>
         </is>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="E34" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="E33" s="8" t="n">
+      <c r="F34" s="1" t="n">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2063,1908 +2138,1988 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.3" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1"/>
+    <row r="2" ht="14.3" customHeight="1">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>group_No.</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>names_base</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>names_in_group_No.</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>names</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>names_No.</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.3" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+    <row r="3" ht="14.3" customHeight="1">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>ang</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>ang</t>
         </is>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="F3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.3" customHeight="1">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="9" t="n"/>
-      <c r="C3" s="5" t="inlineStr">
+    <row r="4" ht="14.3" customHeight="1">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>ang-fry</t>
         </is>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="F4" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.3" customHeight="1">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="9" t="n"/>
-      <c r="C4" s="5" t="inlineStr">
+    <row r="5" ht="14.3" customHeight="1">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>ang-gas</t>
         </is>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="F5" s="4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="14.3" customHeight="1">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="9" t="n"/>
-      <c r="C5" s="5" t="inlineStr">
+    <row r="6" ht="14.3" customHeight="1">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>ang-hot</t>
         </is>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="F6" s="4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="14.3" customHeight="1">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="9" t="n"/>
-      <c r="C6" s="5" t="inlineStr">
+    <row r="7" ht="14.3" customHeight="1">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>ang-log</t>
         </is>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="F7" s="4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="14.3" customHeight="1">
-      <c r="A7" s="9" t="n"/>
-      <c r="B7" s="9" t="n"/>
-      <c r="C7" s="5" t="inlineStr">
+    <row r="8" ht="14.3" customHeight="1">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>6.</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>ang-ra</t>
         </is>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="F8" s="4" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="14.3" customHeight="1">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="5" t="inlineStr">
+    <row r="9" ht="14.3" customHeight="1">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>7.</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>ang.r</t>
         </is>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="F9" s="4" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.3" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
+    <row r="10" ht="14.3" customHeight="1">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>b.h.p</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
         <is>
           <t>b.h.p</t>
         </is>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="F10" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="14.3" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="11" ht="14.3" customHeight="1">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>b.i.z</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>b.i.z</t>
         </is>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="F11" s="4" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="14.3" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
+    <row r="12" ht="14.3" customHeight="1">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>biol</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
         <is>
           <t>biol.r</t>
         </is>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="F12" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="14.3" customHeight="1">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="4" t="inlineStr">
+    <row r="13" ht="14.3" customHeight="1">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="E13" s="1" t="inlineStr">
         <is>
           <t>biologia</t>
         </is>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="F13" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="14.3" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="14" ht="14.3" customHeight="1">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>chemia</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>chemia</t>
         </is>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="F14" s="4" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="14.3" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
+    <row r="15" ht="14.3" customHeight="1">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>6.</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>dok.r.pr.tr</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>dok.r.pr.tr</t>
         </is>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="F15" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="14.3" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
+    <row r="16" ht="14.3" customHeight="1">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>7.</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>dok.zd.gos</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>dok.zd.gos</t>
         </is>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="F16" s="4" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="14.3" customHeight="1">
-      <c r="A16" s="4" t="inlineStr">
+    <row r="17" ht="14.3" customHeight="1">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>8.</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>dz.w.rec</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
         <is>
           <t>dz.w.rec</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="F17" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="14.3" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
+    <row r="18" ht="14.3" customHeight="1">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>9.</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>e.d.b</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>e.d.b</t>
         </is>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="F18" s="4" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="14.3" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
+    <row r="19" ht="14.3" customHeight="1">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>10.</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>f.p.gos</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
         <is>
           <t>f.p.gos</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="F19" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="14.3" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
+    <row r="20" ht="14.3" customHeight="1">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>11.</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>fizyka</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>fizyka</t>
         </is>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="F20" s="4" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="14.3" customHeight="1">
-      <c r="A20" s="4" t="inlineStr">
+    <row r="21" ht="14.3" customHeight="1">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>12.</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>geogr</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
         <is>
           <t>geogr.r</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="F21" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="14.3" customHeight="1">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="4" t="inlineStr">
+    <row r="22" ht="14.3" customHeight="1">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D21" s="8" t="inlineStr">
+      <c r="E22" s="1" t="inlineStr">
         <is>
           <t>geografia</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="F22" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="14.3" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
+    <row r="23" ht="14.3" customHeight="1">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>13.</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>h.i.t</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>h.i.t</t>
         </is>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="F23" s="4" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="14.3" customHeight="1">
-      <c r="A23" s="4" t="inlineStr">
+    <row r="24" ht="14.3" customHeight="1">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>14.</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>higiena</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D23" s="8" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
         <is>
           <t>higiena</t>
         </is>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="F24" s="1" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="14.3" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
+    <row r="25" ht="14.3" customHeight="1">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>15.</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>historia</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>historia</t>
         </is>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="F25" s="4" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="14.3" customHeight="1">
-      <c r="A25" s="4" t="inlineStr">
+    <row r="26" ht="14.3" customHeight="1">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>16.</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>infor</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
         <is>
           <t>infor</t>
         </is>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="F26" s="1" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="14.3" customHeight="1">
-      <c r="A26" s="5" t="inlineStr">
+    <row r="27" ht="14.3" customHeight="1">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>17.</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>jęz.polski</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>jęz.polski</t>
         </is>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="F27" s="4" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="27" ht="14.3" customHeight="1">
-      <c r="A27" s="4" t="inlineStr">
+    <row r="28" ht="14.3" customHeight="1">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>18.</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>k.p.s</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
         <is>
           <t>k.p.s</t>
         </is>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="F28" s="1" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="28" ht="14.3" customHeight="1">
-      <c r="A28" s="5" t="inlineStr">
+    <row r="29" ht="14.3" customHeight="1">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>19.</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>mark</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>mark</t>
         </is>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="F29" s="4" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.3" customHeight="1">
-      <c r="A29" s="7" t="n"/>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="5" t="inlineStr">
+    <row r="30" ht="14.3" customHeight="1">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D29" s="6" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>mark.hot</t>
         </is>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="F30" s="4" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="14.3" customHeight="1">
-      <c r="A30" s="4" t="inlineStr">
+    <row r="31" ht="14.3" customHeight="1">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>20.</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>matem</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
         <is>
           <t>matem.r</t>
         </is>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="F31" s="1" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="31" ht="14.3" customHeight="1">
-      <c r="A31" s="7" t="n"/>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="4" t="inlineStr">
+    <row r="32" ht="14.3" customHeight="1">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D31" s="8" t="inlineStr">
+      <c r="E32" s="1" t="inlineStr">
         <is>
           <t>matematyka</t>
         </is>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="F32" s="1" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="14.3" customHeight="1">
-      <c r="A32" s="5" t="inlineStr">
+    <row r="33" ht="14.3" customHeight="1">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>21.</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>niem</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D32" s="6" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>niem</t>
         </is>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="F33" s="4" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="33" ht="14.3" customHeight="1">
-      <c r="A33" s="4" t="inlineStr">
+    <row r="34" ht="14.3" customHeight="1">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>22.</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>o.k.i.k</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
         <is>
           <t>o.k.i.k</t>
         </is>
       </c>
-      <c r="E33" s="8" t="n">
+      <c r="F34" s="1" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="14.3" customHeight="1">
-      <c r="A34" s="5" t="inlineStr">
+    <row r="35" ht="14.3" customHeight="1">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>23.</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>o.m.z</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D34" s="6" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>o.m.z</t>
         </is>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="F35" s="4" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="14.3" customHeight="1">
-      <c r="A35" s="4" t="inlineStr">
+    <row r="36" ht="14.3" customHeight="1">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>24.</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>o.p.hot</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D35" s="8" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
         <is>
           <t>o.p.hot</t>
         </is>
       </c>
-      <c r="E35" s="8" t="n">
+      <c r="F36" s="1" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="14.3" customHeight="1">
-      <c r="A36" s="5" t="inlineStr">
+    <row r="37" ht="14.3" customHeight="1">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>25.</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>o.p.mag</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D36" s="6" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
         <is>
           <t>o.p.mag</t>
         </is>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="F37" s="4" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="37" ht="14.3" customHeight="1">
-      <c r="A37" s="4" t="inlineStr">
+    <row r="38" ht="14.3" customHeight="1">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>26.</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>ob.kon</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D37" s="8" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
         <is>
           <t>ob.kon</t>
         </is>
       </c>
-      <c r="E37" s="8" t="n">
+      <c r="F38" s="1" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="38" ht="14.3" customHeight="1">
-      <c r="A38" s="5" t="inlineStr">
+    <row r="39" ht="14.3" customHeight="1">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>27.</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>or.proc.tr</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D38" s="6" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>or.proc.tr</t>
         </is>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="F39" s="4" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="14.3" customHeight="1">
-      <c r="A39" s="4" t="inlineStr">
+    <row r="40" ht="14.3" customHeight="1">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>28.</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>p.i.d.fry</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D39" s="8" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
         <is>
           <t>p.i.d.fry</t>
         </is>
       </c>
-      <c r="E39" s="8" t="n">
+      <c r="F40" s="1" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="40" ht="14.3" customHeight="1">
-      <c r="A40" s="5" t="inlineStr">
+    <row r="41" ht="14.3" customHeight="1">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>29.</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>p.i.w.zap</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D40" s="6" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
         <is>
           <t>p.i.w.zap</t>
         </is>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="F41" s="4" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="41" ht="14.3" customHeight="1">
-      <c r="A41" s="4" t="inlineStr">
+    <row r="42" ht="14.3" customHeight="1">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>30.</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>pl.p.trans</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D41" s="8" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
         <is>
           <t>pl.p.trans</t>
         </is>
       </c>
-      <c r="E41" s="8" t="n">
+      <c r="F42" s="1" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="42" ht="14.3" customHeight="1">
-      <c r="A42" s="5" t="inlineStr">
+    <row r="43" ht="14.3" customHeight="1">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>31.</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>plastyka</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D42" s="6" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
         <is>
           <t>plastyka</t>
         </is>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="F43" s="4" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="43" ht="14.3" customHeight="1">
-      <c r="A43" s="4" t="inlineStr">
+    <row r="44" ht="14.3" customHeight="1">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>32.</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>pod.fry</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D43" s="8" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
         <is>
           <t>pod.fry</t>
         </is>
       </c>
-      <c r="E43" s="8" t="n">
+      <c r="F44" s="1" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="44" ht="14.3" customHeight="1">
-      <c r="A44" s="5" t="inlineStr">
+    <row r="45" ht="14.3" customHeight="1">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>33.</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>pod.gas</t>
         </is>
       </c>
-      <c r="C44" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D44" s="6" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
         <is>
           <t>pod.gas</t>
         </is>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="F45" s="4" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="45" ht="14.3" customHeight="1">
-      <c r="A45" s="4" t="inlineStr">
+    <row r="46" ht="14.3" customHeight="1">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>34.</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>pod.log</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D45" s="8" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
         <is>
           <t>pod.log</t>
         </is>
       </c>
-      <c r="E45" s="8" t="n">
+      <c r="F46" s="1" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="46" ht="14.3" customHeight="1">
-      <c r="A46" s="5" t="inlineStr">
+    <row r="47" ht="14.3" customHeight="1">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>35.</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>pod.prz</t>
         </is>
       </c>
-      <c r="C46" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D46" s="6" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
         <is>
           <t>pod.prz</t>
         </is>
       </c>
-      <c r="E46" s="6" t="n">
+      <c r="F47" s="4" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="47" ht="14.3" customHeight="1">
-      <c r="A47" s="4" t="inlineStr">
+    <row r="48" ht="14.3" customHeight="1">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>36.</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>pod.stat</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D47" s="8" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
         <is>
           <t>pod.stat</t>
         </is>
       </c>
-      <c r="E47" s="8" t="n">
+      <c r="F48" s="1" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="48" ht="14.3" customHeight="1">
-      <c r="A48" s="5" t="inlineStr">
+    <row r="49" ht="14.3" customHeight="1">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>37.</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>pod.żyw</t>
         </is>
       </c>
-      <c r="C48" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D48" s="6" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
         <is>
           <t>pod.żyw</t>
         </is>
       </c>
-      <c r="E48" s="6" t="n">
+      <c r="F49" s="4" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="49" ht="14.3" customHeight="1">
-      <c r="A49" s="4" t="inlineStr">
+    <row r="50" ht="14.3" customHeight="1">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>38.</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>pr.est</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D49" s="8" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
         <is>
           <t>pr.est</t>
         </is>
       </c>
-      <c r="E49" s="8" t="n">
+      <c r="F50" s="1" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="50" ht="14.3" customHeight="1">
-      <c r="A50" s="5" t="inlineStr">
+    <row r="51" ht="14.3" customHeight="1">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>39.</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>pr.fry</t>
         </is>
       </c>
-      <c r="C50" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
         <is>
           <t>pr.fry</t>
         </is>
       </c>
-      <c r="E50" s="6" t="n">
+      <c r="F51" s="4" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="51" ht="14.3" customHeight="1">
-      <c r="A51" s="9" t="n"/>
-      <c r="B51" s="9" t="n"/>
-      <c r="C51" s="5" t="inlineStr">
+    <row r="52" ht="14.3" customHeight="1">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="3" t="n"/>
+      <c r="C52" s="3" t="n"/>
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D51" s="6" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t>pr.fry-M</t>
         </is>
       </c>
-      <c r="E51" s="6" t="n">
+      <c r="F52" s="4" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="52" ht="14.3" customHeight="1">
-      <c r="A52" s="9" t="n"/>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="5" t="inlineStr">
+    <row r="53" ht="14.3" customHeight="1">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="n"/>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="D52" s="6" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr">
         <is>
           <t>pr.fry.dam</t>
         </is>
       </c>
-      <c r="E52" s="6" t="n">
+      <c r="F53" s="4" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="53" ht="14.3" customHeight="1">
-      <c r="A53" s="7" t="n"/>
-      <c r="B53" s="7" t="n"/>
-      <c r="C53" s="5" t="inlineStr">
+    <row r="54" ht="14.3" customHeight="1">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="n"/>
+      <c r="C54" s="3" t="n"/>
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="D53" s="6" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
         <is>
           <t>pr.fry.men</t>
         </is>
       </c>
-      <c r="E53" s="6" t="n">
+      <c r="F54" s="4" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="54" ht="14.3" customHeight="1">
-      <c r="A54" s="4" t="inlineStr">
+    <row r="55" ht="14.3" customHeight="1">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>40.</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>pr.gas</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D54" s="8" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
         <is>
           <t>pr.gas</t>
         </is>
       </c>
-      <c r="E54" s="8" t="n">
+      <c r="F55" s="1" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="55" ht="14.3" customHeight="1">
-      <c r="A55" s="5" t="inlineStr">
+    <row r="56" ht="14.3" customHeight="1">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>41.</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>pr.hot</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t>pr.hot</t>
         </is>
       </c>
-      <c r="E55" s="6" t="n">
+      <c r="F56" s="4" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="56" ht="14.3" customHeight="1">
-      <c r="A56" s="4" t="inlineStr">
+    <row r="57" ht="14.3" customHeight="1">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>42.</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>pr.k.p.fry</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D56" s="8" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
         <is>
           <t>pr.k.p.fry</t>
         </is>
       </c>
-      <c r="E56" s="8" t="n">
+      <c r="F57" s="1" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="57" ht="14.3" customHeight="1">
-      <c r="A57" s="5" t="inlineStr">
+    <row r="58" ht="14.3" customHeight="1">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>43.</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>pr.kosm</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D57" s="6" t="inlineStr">
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
         <is>
           <t>pr.kosm</t>
         </is>
       </c>
-      <c r="E57" s="6" t="n">
+      <c r="F58" s="4" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="58" ht="14.3" customHeight="1">
-      <c r="A58" s="4" t="inlineStr">
+    <row r="59" ht="14.3" customHeight="1">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>44.</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>pr.ob.inf</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D58" s="8" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
         <is>
           <t>pr.ob.inf</t>
         </is>
       </c>
-      <c r="E58" s="8" t="n">
+      <c r="F59" s="1" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="59" ht="14.3" customHeight="1">
-      <c r="A59" s="5" t="inlineStr">
+    <row r="60" ht="14.3" customHeight="1">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>45.</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>pr.ob.kon</t>
         </is>
       </c>
-      <c r="C59" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D59" s="6" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
         <is>
           <t>pr.ob.kon</t>
         </is>
       </c>
-      <c r="E59" s="6" t="n">
+      <c r="F60" s="4" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="60" ht="14.3" customHeight="1">
-      <c r="A60" s="4" t="inlineStr">
+    <row r="61" ht="14.3" customHeight="1">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>46.</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>pr.p.est</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D60" s="8" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
         <is>
           <t>pr.p.est</t>
         </is>
       </c>
-      <c r="E60" s="8" t="n">
+      <c r="F61" s="1" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="61" ht="14.3" customHeight="1">
-      <c r="A61" s="5" t="inlineStr">
+    <row r="62" ht="14.3" customHeight="1">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="3" t="inlineStr">
         <is>
           <t>47.</t>
         </is>
       </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>pr.rach</t>
         </is>
       </c>
-      <c r="C61" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D61" s="6" t="inlineStr">
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
         <is>
           <t>pr.rach</t>
         </is>
       </c>
-      <c r="E61" s="6" t="n">
+      <c r="F62" s="4" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="62" ht="14.3" customHeight="1">
-      <c r="A62" s="4" t="inlineStr">
+    <row r="63" ht="14.3" customHeight="1">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>48.</t>
         </is>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>pr.s.k</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D62" s="8" t="inlineStr">
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
         <is>
           <t>pr.s.k-pła</t>
         </is>
       </c>
-      <c r="E62" s="8" t="n">
+      <c r="F63" s="1" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="63" ht="14.3" customHeight="1">
-      <c r="A63" s="5" t="inlineStr">
+    <row r="64" ht="14.3" customHeight="1">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>49.</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>pr.t.biu</t>
         </is>
       </c>
-      <c r="C63" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D63" s="6" t="inlineStr">
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t>pr.t.biu</t>
         </is>
       </c>
-      <c r="E63" s="6" t="n">
+      <c r="F64" s="4" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="64" ht="14.3" customHeight="1">
-      <c r="A64" s="4" t="inlineStr">
+    <row r="65" ht="14.3" customHeight="1">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>50.</t>
         </is>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>pr.wyp.tech</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D64" s="8" t="inlineStr">
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
         <is>
           <t>pr.wyp.tech</t>
         </is>
       </c>
-      <c r="E64" s="8" t="n">
+      <c r="F65" s="1" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="65" ht="14.3" customHeight="1">
-      <c r="A65" s="5" t="inlineStr">
+    <row r="66" ht="14.3" customHeight="1">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="3" t="inlineStr">
         <is>
           <t>51.</t>
         </is>
       </c>
-      <c r="B65" s="5" t="inlineStr">
+      <c r="C66" s="3" t="inlineStr">
         <is>
           <t>pra.d.g</t>
         </is>
       </c>
-      <c r="C65" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D65" s="6" t="inlineStr">
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E66" s="4" t="inlineStr">
         <is>
           <t>pra.d.g</t>
         </is>
       </c>
-      <c r="E65" s="6" t="n">
+      <c r="F66" s="4" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="66" ht="14.3" customHeight="1">
-      <c r="A66" s="4" t="inlineStr">
+    <row r="67" ht="14.3" customHeight="1">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>52.</t>
         </is>
       </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>pro.gos.fin</t>
         </is>
       </c>
-      <c r="C66" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D66" s="8" t="inlineStr">
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
         <is>
           <t>pro.gos.fin</t>
         </is>
       </c>
-      <c r="E66" s="8" t="n">
+      <c r="F67" s="1" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="67" ht="14.3" customHeight="1">
-      <c r="A67" s="5" t="inlineStr">
+    <row r="68" ht="14.3" customHeight="1">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="3" t="inlineStr">
         <is>
           <t>53.</t>
         </is>
       </c>
-      <c r="B67" s="5" t="inlineStr">
+      <c r="C68" s="3" t="inlineStr">
         <is>
           <t>przech.zap</t>
         </is>
       </c>
-      <c r="C67" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D67" s="6" t="inlineStr">
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
         <is>
           <t>przech.zap</t>
         </is>
       </c>
-      <c r="E67" s="6" t="n">
+      <c r="F68" s="4" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="68" ht="14.3" customHeight="1">
-      <c r="A68" s="4" t="inlineStr">
+    <row r="69" ht="14.3" customHeight="1">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>54.</t>
         </is>
       </c>
-      <c r="B68" s="4" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>rach.fin</t>
         </is>
       </c>
-      <c r="C68" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D68" s="8" t="inlineStr">
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
         <is>
           <t>rach.fin</t>
         </is>
       </c>
-      <c r="E68" s="8" t="n">
+      <c r="F69" s="1" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="69" ht="14.3" customHeight="1">
-      <c r="A69" s="5" t="inlineStr">
+    <row r="70" ht="14.3" customHeight="1">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="3" t="inlineStr">
         <is>
           <t>55.</t>
         </is>
       </c>
-      <c r="B69" s="5" t="inlineStr">
+      <c r="C70" s="3" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="C69" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D69" s="6" t="inlineStr">
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E70" s="4" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="E69" s="6" t="n">
+      <c r="F70" s="4" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="70" ht="14.3" customHeight="1">
-      <c r="A70" s="4" t="inlineStr">
+    <row r="71" ht="14.3" customHeight="1">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>56.</t>
         </is>
       </c>
-      <c r="B70" s="4" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>stat</t>
         </is>
       </c>
-      <c r="C70" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D70" s="8" t="inlineStr">
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
         <is>
           <t>stat</t>
         </is>
       </c>
-      <c r="E70" s="8" t="n">
+      <c r="F71" s="1" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="71" ht="14.3" customHeight="1">
-      <c r="A71" s="5" t="inlineStr">
+    <row r="72" ht="14.3" customHeight="1">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="3" t="inlineStr">
         <is>
           <t>57.</t>
         </is>
       </c>
-      <c r="B71" s="5" t="inlineStr">
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>t.fry</t>
         </is>
       </c>
-      <c r="C71" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D71" s="6" t="inlineStr">
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E72" s="4" t="inlineStr">
         <is>
           <t>t.fry</t>
         </is>
       </c>
-      <c r="E71" s="6" t="n">
+      <c r="F72" s="4" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="72" ht="14.3" customHeight="1">
-      <c r="A72" s="4" t="inlineStr">
+    <row r="73" ht="14.3" customHeight="1">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>58.</t>
         </is>
       </c>
-      <c r="B72" s="4" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>us.w.gas</t>
         </is>
       </c>
-      <c r="C72" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D72" s="8" t="inlineStr">
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
         <is>
           <t>us.w.gas</t>
         </is>
       </c>
-      <c r="E72" s="8" t="n">
+      <c r="F73" s="1" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="73" ht="14.3" customHeight="1">
-      <c r="A73" s="5" t="inlineStr">
+    <row r="74" ht="14.3" customHeight="1">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="3" t="inlineStr">
         <is>
           <t>59.</t>
         </is>
       </c>
-      <c r="B73" s="5" t="inlineStr">
+      <c r="C74" s="3" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="C73" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D73" s="6" t="inlineStr">
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E74" s="4" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="E73" s="6" t="n">
+      <c r="F74" s="4" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="74" ht="14.3" customHeight="1">
-      <c r="A74" s="4" t="inlineStr">
+    <row r="75" ht="14.3" customHeight="1">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>60.</t>
         </is>
       </c>
-      <c r="B74" s="4" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>w.o.s</t>
         </is>
       </c>
-      <c r="C74" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D74" s="8" t="inlineStr">
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
         <is>
           <t>w.o.s</t>
         </is>
       </c>
-      <c r="E74" s="8" t="n">
+      <c r="F75" s="1" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="75" ht="14.3" customHeight="1">
-      <c r="A75" s="5" t="inlineStr">
+    <row r="76" ht="14.3" customHeight="1">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="3" t="inlineStr">
         <is>
           <t>61.</t>
         </is>
       </c>
-      <c r="B75" s="5" t="inlineStr">
+      <c r="C76" s="3" t="inlineStr">
         <is>
           <t>wło</t>
         </is>
       </c>
-      <c r="C75" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D75" s="6" t="inlineStr">
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E76" s="4" t="inlineStr">
         <is>
           <t>wło</t>
         </is>
       </c>
-      <c r="E75" s="6" t="n">
+      <c r="F76" s="4" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="76" ht="14.3" customHeight="1">
-      <c r="A76" s="4" t="inlineStr">
+    <row r="77" ht="14.3" customHeight="1">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>62.</t>
         </is>
       </c>
-      <c r="B76" s="4" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>z.r.wło</t>
         </is>
       </c>
-      <c r="C76" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D76" s="8" t="inlineStr">
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
         <is>
           <t>z.r.wło</t>
         </is>
       </c>
-      <c r="E76" s="8" t="n">
+      <c r="F77" s="1" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="77" ht="14.3" customHeight="1">
-      <c r="A77" s="5" t="inlineStr">
+    <row r="78" ht="14.3" customHeight="1">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="3" t="inlineStr">
         <is>
           <t>63.</t>
         </is>
       </c>
-      <c r="B77" s="5" t="inlineStr">
+      <c r="C78" s="3" t="inlineStr">
         <is>
           <t>z.z.w</t>
         </is>
       </c>
-      <c r="C77" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D77" s="6" t="inlineStr">
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
         <is>
           <t>z.z.w</t>
         </is>
       </c>
-      <c r="E77" s="6" t="n">
+      <c r="F78" s="4" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="78" ht="14.3" customHeight="1">
-      <c r="A78" s="4" t="inlineStr">
+    <row r="79" ht="14.3" customHeight="1">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>64.</t>
         </is>
       </c>
-      <c r="B78" s="4" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>zab.maj</t>
         </is>
       </c>
-      <c r="C78" s="4" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D78" s="8" t="inlineStr">
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
         <is>
           <t>zab.maj</t>
         </is>
       </c>
-      <c r="E78" s="8" t="n">
+      <c r="F79" s="1" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="79" ht="14.3" customHeight="1">
-      <c r="A79" s="5" t="inlineStr">
+    <row r="80" ht="14.3" customHeight="1">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="3" t="inlineStr">
         <is>
           <t>65.</t>
         </is>
       </c>
-      <c r="B79" s="5" t="inlineStr">
+      <c r="C80" s="3" t="inlineStr">
         <is>
           <t>zaj.sport</t>
         </is>
       </c>
-      <c r="C79" s="5" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="D79" s="6" t="inlineStr">
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="E80" s="4" t="inlineStr">
         <is>
           <t>zaj.sport</t>
         </is>
       </c>
-      <c r="E79" s="6" t="n">
+      <c r="F80" s="4" t="n">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
